--- a/заказы/статистика филиалы/2023/11,23/23,11,23 ЗПФ/дв 23,11,23 днрсч зпф от филиала.xlsx
+++ b/заказы/статистика филиалы/2023/11,23/23,11,23 ЗПФ/дв 23,11,23 днрсч зпф от филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\23,11,23 ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\11,23\23,11,23 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0274AE7-2C51-4DCA-8513-107D7920D32B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEB1099-295C-4719-AAB7-15B40E21657D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -357,10 +357,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -5350,8 +5354,8 @@
   <dimension ref="A1:AD66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z48" sqref="Z48"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -5376,10 +5380,10 @@
     <col min="21" max="22" width="5.83203125" style="4" customWidth="1"/>
     <col min="23" max="25" width="7.83203125" style="4" customWidth="1"/>
     <col min="26" max="26" width="36.83203125" style="4" customWidth="1"/>
-    <col min="27" max="27" width="8.6640625" style="4" customWidth="1"/>
-    <col min="28" max="28" width="8.6640625" style="21" customWidth="1"/>
-    <col min="29" max="29" width="8.6640625" style="22" customWidth="1"/>
-    <col min="30" max="30" width="8.6640625" style="4" customWidth="1"/>
+    <col min="27" max="27" width="6.6640625" style="4" customWidth="1"/>
+    <col min="28" max="28" width="6.6640625" style="21" customWidth="1"/>
+    <col min="29" max="29" width="6.6640625" style="22" customWidth="1"/>
+    <col min="30" max="30" width="6.6640625" style="4" customWidth="1"/>
     <col min="31" max="16384" width="10.5" style="4"/>
   </cols>
   <sheetData>
